--- a/teste.xlsx
+++ b/teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herik\OneDrive\Área de Trabalho\chatbot_hipotese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09AF3D2-34C2-4651-B08E-B89ECEE9145E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC9780-3A75-40F2-8D4A-2E07B683E21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3677,7 +3677,7 @@
   <dimension ref="A1:H544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
